--- a/Docs/PilotQuantities_08Nov2024.xlsx
+++ b/Docs/PilotQuantities_08Nov2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6089-127_CM_V3\GitHub\Cornell_CM_Rev3_HW\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE2A6C1A-06BD-474F-B72A-402AF675BD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0A591D-6D78-4A10-9C5F-2FF387D24822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56CE621D-92EB-4E89-A690-74937ADA547F}"/>
   </bookViews>
@@ -1214,6 +1214,6 @@
   </sheetData>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.45" right="0.45" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="3" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>